--- a/ApolloQA/Data/RatingManual/SC/VA00066.ClassCodeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00066.ClassCodeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00066.ClassCodeFactors" sheetId="1" r:id="R53a588630d9d4e90"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00066.ClassCodeFactors" sheetId="1" r:id="R2d152291d8484dea"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -23,7 +23,7 @@
         <x:v>504</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.7277</x:v>
+        <x:v>2.1596</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -79,7 +79,7 @@
         <x:v>517</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.6897</x:v>
+        <x:v>2.1121</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -87,7 +87,7 @@
         <x:v>518</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1353</x:v>
+        <x:v>1.4191</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -143,7 +143,7 @@
         <x:v>539</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1261</x:v>
+        <x:v>1.4076</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -151,35 +151,35 @@
         <x:v>540</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>1.8289</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.1196</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.3045</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>1.4631</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>542</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.6957</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>544</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.8436</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>545</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.4631</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
         <x:v>546</x:v>
       </x:c>
       <x:c t="str">
@@ -311,7 +311,7 @@
         <x:v>564</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.3096</x:v>
+        <x:v>1.6370</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -327,7 +327,7 @@
         <x:v>566</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1824</x:v>
+        <x:v>1.4780</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -335,7 +335,7 @@
         <x:v>568</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.9357</x:v>
+        <x:v>2.4196</x:v>
       </x:c>
     </x:row>
     <x:row>
